--- a/заказы/статистика филиалы/2023/12,23/20,12,23 КИ/дв 20,12,23 млрсч.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/20,12,23 КИ/дв 20,12,23 млрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\20,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\20,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544F2F96-A527-460B-8A94-8562D66EE999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D9D46-8E12-47DA-9FD2-09B3B5A88051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,6 +375,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -9286,7 +9288,7 @@
         <v>67.391800000000003</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" ref="AA7:AB70" si="9">Q7*H7</f>
+        <f t="shared" ref="AA7:AA70" si="9">Q7*H7</f>
         <v>327.46179999999998</v>
       </c>
       <c r="AB7" s="2">
@@ -14937,7 +14939,7 @@
         <v>20.646999999999998</v>
       </c>
       <c r="AA71" s="2">
-        <f t="shared" ref="AA71:AB81" si="21">Q71*H71</f>
+        <f t="shared" ref="AA71:AA81" si="21">Q71*H71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="2">
